--- a/biology/Zoologie/Belodina/Belodina.xlsx
+++ b/biology/Zoologie/Belodina/Belodina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Belodina est un genre fossile de conodontes de la famille des Panderodontidae. Les différentes espèces ont été trouvées dans des terrains datant de l'Ordovicien au Dévonien. 
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">le genre Belodina est décrit en 1959 par Raymond L. Ethington[1],[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">le genre Belodina est décrit en 1959 par Raymond L. Ethington,
 En 1967, Christopher R. Barnes décrit un assemblage de conodontes, qu'il assigne au genre de formes Belodina à partir de quatre éléments de la formation de Cobourg datant de l'Ordovicien moyen (du groupe de Trenton) située à Ottawa, au Canada.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Selon Fossilworks (site consulté le 14 mars 2021):
 †Belodina compressa Branson &amp; Mehl, 1933
